--- a/Session7/GoogLeNet-Receptive Field calculation.xlsx
+++ b/Session7/GoogLeNet-Receptive Field calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/workspace/psp/github/ml-experiments/extensive-vision-ai-program/Session7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E75E787-D2B3-DF41-B853-129E8D90F9DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA08384-3604-4448-93FB-4E7366BB48CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15840" xr2:uid="{2EF4D665-00F6-2C4F-BBE9-8DDB2419D108}"/>
   </bookViews>
